--- a/newspapers.xlsx
+++ b/newspapers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H400"/>
+  <dimension ref="A1:H402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14713,6 +14713,78 @@
         </is>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>URN:NBN:no-nb_digavis_eidsvollullensakerbl</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Eidsvoll Ullensaker Blad</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Eidsvoll</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Akershus</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>149016303</v>
+      </c>
+      <c r="F401" t="n">
+        <v>60.41629645</v>
+      </c>
+      <c r="G401" t="n">
+        <v>11.25554424967841</v>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Eidsvoll, Akershus, Norge</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>URN:NBN:no-nb_digavis_larvikdagblad</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Larvik Dagblad</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Larvik</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Vestfold</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>150229817</v>
+      </c>
+      <c r="F402" t="n">
+        <v>59.0967308</v>
+      </c>
+      <c r="G402" t="n">
+        <v>10.02192995997281</v>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Larvik, Vestfold, Norge</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
